--- a/tests/test_protocol_stopped.xlsx
+++ b/tests/test_protocol_stopped.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jespersamsobirch/OneDrive - SniprBiome/ph-meter-interface/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F92DF9-CCEA-184D-BE27-DB3E7AF236D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029B8065-84FE-DB4C-A234-630B7F4E00A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="11">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E2" s="12">
         <v>5.6</v>
@@ -661,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="11">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E3" s="12">
         <v>5.6</v>
@@ -711,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="11">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E4" s="12">
         <v>5.6</v>
@@ -761,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="11">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E5" s="12">
         <v>5.6</v>
@@ -811,7 +811,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="11">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E6" s="12">
         <v>5.6</v>

--- a/tests/test_protocol_stopped.xlsx
+++ b/tests/test_protocol_stopped.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jespersamsobirch/OneDrive - SniprBiome/ph-meter-interface/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://snipr-my.sharepoint.com/personal/jsb_sniprbiome_com/Documents/ph-meter-interface/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029B8065-84FE-DB4C-A234-630B7F4E00A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -541,7 +541,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
